--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_4_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_4_sine_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.88000000000045</v>
+        <v>24.81000000000044</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.549693954913892e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.029975325301373e-11</v>
+        <v>5.805087710458335e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>32.36019602139434</v>
+        <v>39.65546762788249</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[23.102668234464076, 41.61772380832461]</t>
+          <t>[30.332027927624424, 48.978907328140565]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.789457636571569e-11</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>7.578915273143139e-11</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.452868674633118</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.1258159859711174, 1.7799213632951183]</t>
+          <t>[1.4528686746331188, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.28739530154134</v>
+        <v>64.37716213215442</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.61757393952091, 62.957216663561766]</t>
+          <t>[58.635152558329, 70.11917170597985]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.12696696696731</v>
+        <v>18.03009009009041</v>
       </c>
       <c r="X2" t="n">
-        <v>17.83191191191224</v>
+        <v>16.98702702702733</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.42202202202239</v>
+        <v>19.07315315315349</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.81000000000013</v>
+        <v>22.90000000000014</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.31651911594588e-10</v>
+        <v>7.398917656331605e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>4.623485304217543e-10</v>
+        <v>1.741992472126618e-07</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.51429488520238</v>
+        <v>37.64401738358009</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[28.878247817822718, 60.150341952582046]</t>
+          <t>[24.10452499764922, 51.18350976951096]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.491156038876625e-08</v>
+        <v>1.761803793964845e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>9.491156038876625e-08</v>
+        <v>1.761803793964845e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.924579283280234</v>
+        <v>-1.597526594618233</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.2893688206340035, -1.5597897459264636]</t>
+          <t>[-2.0503687789194647, -1.1446844103170015]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.095614710067139e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.095614710067139e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>59.35206438143997</v>
+        <v>55.47025475120924</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.7523359433536, 67.95179281952633]</t>
+          <t>[46.749367915325564, 64.19114158709291]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.986846846846884</v>
+        <v>5.822422422422459</v>
       </c>
       <c r="X3" t="n">
-        <v>5.662542542542572</v>
+        <v>4.171971971971998</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.311151151151197</v>
+        <v>7.47287287287292</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_4_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_4_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.81000000000044</v>
+        <v>24.73000000000043</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.805087710458335e-16</v>
+        <v>4.000803692342906e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.65546762788249</v>
+        <v>42.21153339903388</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[30.332027927624424, 48.978907328140565]</t>
+          <t>[33.301771214872176, 51.121295583195575]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.717026615475503</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4528686746331188, 1.9811845563178876]</t>
+          <t>[1.2012896833546556, 1.6541318676558863]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.37716213215442</v>
+        <v>57.136707073138</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.635152558329, 70.11917170597985]</t>
+          <t>[51.62092442944127, 62.65248971683473]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.03009009009041</v>
+        <v>19.110670670671</v>
       </c>
       <c r="X2" t="n">
-        <v>16.98702702702733</v>
+        <v>18.21949949949982</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.07315315315349</v>
+        <v>20.00184184184219</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.90000000000014</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.398917656331605e-08</v>
+        <v>2.334434220374604e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741992472126618e-07</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>5.558176715177628e-07</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6961193574604445</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.64401738358009</v>
+        <v>34.60105555655259</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[24.10452499764922, 51.18350976951096]</t>
+          <t>[18.38363119172196, 50.818479921383215]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.761803793964845e-07</v>
+        <v>4.38714055090994e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.761803793964845e-07</v>
+        <v>4.38714055090994e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.597526594618233</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.0503687789194647, -1.1446844103170015]</t>
+          <t>[1.9434477076261185, 2.84913207622858]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.095614710067139e-10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.095614710067139e-10</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.47025475120924</v>
+        <v>62.99869308674111</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.749367915325564, 64.19114158709291]</t>
+          <t>[54.56153379750112, 71.43585237598109]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.822422422422459</v>
+        <v>13.60960960960961</v>
       </c>
       <c r="X3" t="n">
-        <v>4.171971971971998</v>
+        <v>12.02402402402403</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.47287287287292</v>
+        <v>15.1951951951952</v>
       </c>
     </row>
   </sheetData>
